--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Database!$A$1:$S$405</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3649" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3649" uniqueCount="112">
   <si>
     <t>Sample</t>
   </si>
@@ -195,9 +195,6 @@
     <t>B. sylvarum</t>
   </si>
   <si>
-    <t>worker</t>
-  </si>
-  <si>
     <t>Vänge</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>*was actually blowing a lot</t>
+  </si>
+  <si>
+    <t>fake dead</t>
   </si>
   <si>
     <t>*note</t>
@@ -294,6 +294,9 @@
     <t>SO</t>
   </si>
   <si>
+    <t>worker</t>
+  </si>
+  <si>
     <t>B. hortorum</t>
   </si>
   <si>
@@ -313,9 +316,6 @@
   </si>
   <si>
     <t>2(8)</t>
-  </si>
-  <si>
-    <t>fake dead</t>
   </si>
   <si>
     <t>cloudy</t>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>6(13)</t>
+  </si>
+  <si>
+    <t>resting</t>
   </si>
 </sst>
 </file>
@@ -1165,15 +1168,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="P412" sqref="P412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3756,7 +3755,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3780,7 +3779,7 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K47" t="s">
         <v>30</v>
@@ -3812,7 +3811,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3836,7 +3835,7 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K48" t="s">
         <v>30</v>
@@ -3868,7 +3867,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3892,7 +3891,7 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K49" t="s">
         <v>30</v>
@@ -3924,7 +3923,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3951,7 +3950,7 @@
         <v>50</v>
       </c>
       <c r="K50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L50" t="s">
         <v>48</v>
@@ -3980,7 +3979,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4007,7 +4006,7 @@
         <v>50</v>
       </c>
       <c r="K51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L51" t="s">
         <v>48</v>
@@ -4036,7 +4035,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4063,7 +4062,7 @@
         <v>50</v>
       </c>
       <c r="K52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L52" t="s">
         <v>48</v>
@@ -4092,7 +4091,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4119,7 +4118,7 @@
         <v>50</v>
       </c>
       <c r="K53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L53" t="s">
         <v>48</v>
@@ -4148,7 +4147,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4175,7 +4174,7 @@
         <v>50</v>
       </c>
       <c r="K54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L54" t="s">
         <v>48</v>
@@ -4204,7 +4203,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4231,7 +4230,7 @@
         <v>50</v>
       </c>
       <c r="K55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L55" t="s">
         <v>48</v>
@@ -4240,7 +4239,7 @@
         <v>16</v>
       </c>
       <c r="N55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O55" t="s">
         <v>25</v>
@@ -4260,7 +4259,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4287,7 +4286,7 @@
         <v>50</v>
       </c>
       <c r="K56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L56" t="s">
         <v>48</v>
@@ -4316,7 +4315,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4340,10 +4339,10 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L57" t="s">
         <v>23</v>
@@ -4352,7 +4351,7 @@
         <v>17</v>
       </c>
       <c r="N57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O57" t="s">
         <v>25</v>
@@ -4372,7 +4371,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4396,10 +4395,10 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L58" t="s">
         <v>23</v>
@@ -4408,7 +4407,7 @@
         <v>40</v>
       </c>
       <c r="N58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O58" t="s">
         <v>25</v>
@@ -4428,7 +4427,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4452,10 +4451,10 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L59" t="s">
         <v>23</v>
@@ -4478,7 +4477,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4502,10 +4501,10 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L60" t="s">
         <v>23</v>
@@ -4514,7 +4513,7 @@
         <v>40</v>
       </c>
       <c r="N60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O60" t="s">
         <v>25</v>
@@ -4528,7 +4527,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4552,10 +4551,10 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L61" t="s">
         <v>23</v>
@@ -4564,7 +4563,7 @@
         <v>40</v>
       </c>
       <c r="N61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O61" t="s">
         <v>25</v>
@@ -4584,7 +4583,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4608,10 +4607,10 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L62" t="s">
         <v>23</v>
@@ -4620,7 +4619,7 @@
         <v>40</v>
       </c>
       <c r="N62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O62" t="s">
         <v>25</v>
@@ -4640,7 +4639,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4664,10 +4663,10 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L63" t="s">
         <v>23</v>
@@ -4696,7 +4695,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4720,10 +4719,10 @@
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L64" t="s">
         <v>23</v>
@@ -4752,7 +4751,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4776,10 +4775,10 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L65" t="s">
         <v>23</v>
@@ -4808,7 +4807,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4832,10 +4831,10 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L66" t="s">
         <v>23</v>
@@ -4864,7 +4863,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4888,10 +4887,10 @@
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L67" t="s">
         <v>23</v>
@@ -4920,7 +4919,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4947,10 +4946,10 @@
         <v>20</v>
       </c>
       <c r="K68" t="s">
+        <v>66</v>
+      </c>
+      <c r="L68" t="s">
         <v>67</v>
-      </c>
-      <c r="L68" t="s">
-        <v>68</v>
       </c>
       <c r="M68" t="s">
         <v>16</v>
@@ -4971,7 +4970,7 @@
         <v>639351</v>
       </c>
       <c r="S68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -4979,7 +4978,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -5006,10 +5005,10 @@
         <v>20</v>
       </c>
       <c r="K69" t="s">
+        <v>66</v>
+      </c>
+      <c r="L69" t="s">
         <v>67</v>
-      </c>
-      <c r="L69" t="s">
-        <v>68</v>
       </c>
       <c r="M69" t="s">
         <v>16</v>
@@ -5035,7 +5034,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5062,22 +5061,22 @@
         <v>20</v>
       </c>
       <c r="K70" t="s">
+        <v>66</v>
+      </c>
+      <c r="L70" t="s">
         <v>67</v>
-      </c>
-      <c r="L70" t="s">
-        <v>68</v>
       </c>
       <c r="M70" t="s">
         <v>16</v>
       </c>
       <c r="N70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O70" t="s">
         <v>25</v>
       </c>
       <c r="P70" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="Q70">
         <v>6653732</v>
@@ -5094,7 +5093,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -5121,10 +5120,10 @@
         <v>20</v>
       </c>
       <c r="K71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L71" t="s">
         <v>67</v>
-      </c>
-      <c r="L71" t="s">
-        <v>68</v>
       </c>
       <c r="M71" t="s">
         <v>16</v>
@@ -5150,7 +5149,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -5177,10 +5176,10 @@
         <v>20</v>
       </c>
       <c r="K72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L72" t="s">
         <v>67</v>
-      </c>
-      <c r="L72" t="s">
-        <v>68</v>
       </c>
       <c r="M72" t="s">
         <v>16</v>
@@ -5206,7 +5205,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -5233,10 +5232,10 @@
         <v>20</v>
       </c>
       <c r="K73" t="s">
+        <v>66</v>
+      </c>
+      <c r="L73" t="s">
         <v>67</v>
-      </c>
-      <c r="L73" t="s">
-        <v>68</v>
       </c>
       <c r="M73" t="s">
         <v>23</v>
@@ -5262,7 +5261,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -5289,10 +5288,10 @@
         <v>20</v>
       </c>
       <c r="K74" t="s">
+        <v>66</v>
+      </c>
+      <c r="L74" t="s">
         <v>67</v>
-      </c>
-      <c r="L74" t="s">
-        <v>68</v>
       </c>
       <c r="M74" t="s">
         <v>23</v>
@@ -5318,7 +5317,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -5345,10 +5344,10 @@
         <v>20</v>
       </c>
       <c r="K75" t="s">
+        <v>66</v>
+      </c>
+      <c r="L75" t="s">
         <v>67</v>
-      </c>
-      <c r="L75" t="s">
-        <v>68</v>
       </c>
       <c r="M75" t="s">
         <v>23</v>
@@ -5374,7 +5373,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -5401,10 +5400,10 @@
         <v>20</v>
       </c>
       <c r="K76" t="s">
+        <v>66</v>
+      </c>
+      <c r="L76" t="s">
         <v>67</v>
-      </c>
-      <c r="L76" t="s">
-        <v>68</v>
       </c>
       <c r="M76" t="s">
         <v>23</v>
@@ -5430,7 +5429,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -5457,10 +5456,10 @@
         <v>20</v>
       </c>
       <c r="K77" t="s">
+        <v>66</v>
+      </c>
+      <c r="L77" t="s">
         <v>67</v>
-      </c>
-      <c r="L77" t="s">
-        <v>68</v>
       </c>
       <c r="M77" t="s">
         <v>23</v>
@@ -5486,7 +5485,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -5513,10 +5512,10 @@
         <v>20</v>
       </c>
       <c r="K78" t="s">
+        <v>66</v>
+      </c>
+      <c r="L78" t="s">
         <v>67</v>
-      </c>
-      <c r="L78" t="s">
-        <v>68</v>
       </c>
       <c r="M78" t="s">
         <v>23</v>
@@ -5542,7 +5541,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -5569,10 +5568,10 @@
         <v>20</v>
       </c>
       <c r="K79" t="s">
+        <v>66</v>
+      </c>
+      <c r="L79" t="s">
         <v>67</v>
-      </c>
-      <c r="L79" t="s">
-        <v>68</v>
       </c>
       <c r="M79" t="s">
         <v>23</v>
@@ -5598,7 +5597,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -5625,10 +5624,10 @@
         <v>20</v>
       </c>
       <c r="K80" t="s">
+        <v>66</v>
+      </c>
+      <c r="L80" t="s">
         <v>67</v>
-      </c>
-      <c r="L80" t="s">
-        <v>68</v>
       </c>
       <c r="M80" t="s">
         <v>23</v>
@@ -5654,7 +5653,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -5681,10 +5680,10 @@
         <v>20</v>
       </c>
       <c r="K81" t="s">
+        <v>66</v>
+      </c>
+      <c r="L81" t="s">
         <v>67</v>
-      </c>
-      <c r="L81" t="s">
-        <v>68</v>
       </c>
       <c r="M81" t="s">
         <v>23</v>
@@ -6250,7 +6249,7 @@
         <v>40</v>
       </c>
       <c r="N91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O91" t="s">
         <v>25</v>
@@ -6312,7 +6311,7 @@
         <v>25</v>
       </c>
       <c r="P92" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="Q92">
         <v>6684637</v>
@@ -6356,7 +6355,7 @@
         <v>74</v>
       </c>
       <c r="L93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M93" t="s">
         <v>16</v>
@@ -6412,7 +6411,7 @@
         <v>74</v>
       </c>
       <c r="L94" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M94" t="s">
         <v>16</v>
@@ -6468,7 +6467,7 @@
         <v>74</v>
       </c>
       <c r="L95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M95" t="s">
         <v>16</v>
@@ -6524,7 +6523,7 @@
         <v>74</v>
       </c>
       <c r="L96" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M96" t="s">
         <v>16</v>
@@ -6580,13 +6579,13 @@
         <v>74</v>
       </c>
       <c r="L97" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M97" t="s">
         <v>16</v>
       </c>
       <c r="N97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O97" t="s">
         <v>25</v>
@@ -6636,7 +6635,7 @@
         <v>74</v>
       </c>
       <c r="L98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M98" t="s">
         <v>23</v>
@@ -6692,7 +6691,7 @@
         <v>74</v>
       </c>
       <c r="L99" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M99" t="s">
         <v>23</v>
@@ -6860,7 +6859,7 @@
         <v>16</v>
       </c>
       <c r="N102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O102" t="s">
         <v>25</v>
@@ -7078,7 +7077,7 @@
         <v>30</v>
       </c>
       <c r="L106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M106" t="s">
         <v>17</v>
@@ -7134,7 +7133,7 @@
         <v>30</v>
       </c>
       <c r="L107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M107" t="s">
         <v>17</v>
@@ -7190,7 +7189,7 @@
         <v>6</v>
       </c>
       <c r="L108" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M108" t="s">
         <v>17</v>
@@ -7246,7 +7245,7 @@
         <v>6</v>
       </c>
       <c r="L109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M109" t="s">
         <v>17</v>
@@ -7302,7 +7301,7 @@
         <v>6</v>
       </c>
       <c r="L110" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M110" t="s">
         <v>17</v>
@@ -7358,7 +7357,7 @@
         <v>6</v>
       </c>
       <c r="L111" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M111" t="s">
         <v>17</v>
@@ -7414,7 +7413,7 @@
         <v>6</v>
       </c>
       <c r="L112" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M112" t="s">
         <v>40</v>
@@ -7470,7 +7469,7 @@
         <v>6</v>
       </c>
       <c r="L113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M113" t="s">
         <v>40</v>
@@ -7526,7 +7525,7 @@
         <v>6</v>
       </c>
       <c r="L114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M114" t="s">
         <v>40</v>
@@ -8083,7 +8082,7 @@
         <v>20</v>
       </c>
       <c r="K124" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L124" t="s">
         <v>16</v>
@@ -8139,7 +8138,7 @@
         <v>20</v>
       </c>
       <c r="K125" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L125" t="s">
         <v>16</v>
@@ -8195,7 +8194,7 @@
         <v>20</v>
       </c>
       <c r="K126" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L126" t="s">
         <v>16</v>
@@ -8251,7 +8250,7 @@
         <v>20</v>
       </c>
       <c r="K127" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L127" t="s">
         <v>16</v>
@@ -8307,7 +8306,7 @@
         <v>20</v>
       </c>
       <c r="K128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L128" t="s">
         <v>16</v>
@@ -8363,7 +8362,7 @@
         <v>20</v>
       </c>
       <c r="K129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L129" t="s">
         <v>16</v>
@@ -8416,13 +8415,13 @@
         <v>13</v>
       </c>
       <c r="J130" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K130" t="s">
         <v>84</v>
       </c>
       <c r="L130" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M130" t="s">
         <v>40</v>
@@ -8472,13 +8471,13 @@
         <v>13</v>
       </c>
       <c r="J131" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K131" t="s">
         <v>84</v>
       </c>
       <c r="L131" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M131" t="s">
         <v>17</v>
@@ -8528,13 +8527,13 @@
         <v>13</v>
       </c>
       <c r="J132" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K132" t="s">
         <v>84</v>
       </c>
       <c r="L132" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M132" t="s">
         <v>40</v>
@@ -8584,13 +8583,13 @@
         <v>13</v>
       </c>
       <c r="J133" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K133" t="s">
         <v>84</v>
       </c>
       <c r="L133" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M133" t="s">
         <v>40</v>
@@ -8640,13 +8639,13 @@
         <v>13</v>
       </c>
       <c r="J134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K134" t="s">
         <v>84</v>
       </c>
       <c r="L134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M134" t="s">
         <v>40</v>
@@ -11788,7 +11787,7 @@
         <v>40</v>
       </c>
       <c r="N190" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O190" t="s">
         <v>25</v>
@@ -11808,7 +11807,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C191">
         <v>2</v>
@@ -11847,7 +11846,7 @@
         <v>56</v>
       </c>
       <c r="O191" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="P191" t="s">
         <v>33</v>
@@ -11864,7 +11863,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C192">
         <v>2</v>
@@ -11920,7 +11919,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C193">
         <v>2</v>
@@ -11976,7 +11975,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C194">
         <v>2</v>
@@ -12032,7 +12031,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C195">
         <v>2</v>
@@ -12088,7 +12087,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C196">
         <v>2</v>
@@ -12144,7 +12143,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C197">
         <v>2</v>
@@ -12200,7 +12199,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C198">
         <v>2</v>
@@ -12256,7 +12255,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C199">
         <v>2</v>
@@ -12312,7 +12311,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C200">
         <v>2</v>
@@ -12368,7 +12367,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C201">
         <v>2</v>
@@ -12404,7 +12403,7 @@
         <v>23</v>
       </c>
       <c r="N201" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O201" t="s">
         <v>25</v>
@@ -12424,7 +12423,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C202">
         <v>2</v>
@@ -12480,7 +12479,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C203">
         <v>2</v>
@@ -12787,10 +12786,10 @@
         <v>50</v>
       </c>
       <c r="K208" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L208" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M208" t="s">
         <v>40</v>
@@ -12843,10 +12842,10 @@
         <v>50</v>
       </c>
       <c r="K209" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L209" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M209" t="s">
         <v>40</v>
@@ -12899,10 +12898,10 @@
         <v>50</v>
       </c>
       <c r="K210" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L210" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M210" t="s">
         <v>17</v>
@@ -12928,7 +12927,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C211">
         <v>2</v>
@@ -12955,7 +12954,7 @@
         <v>50</v>
       </c>
       <c r="K211" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L211" t="s">
         <v>16</v>
@@ -12984,7 +12983,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C212">
         <v>2</v>
@@ -13011,7 +13010,7 @@
         <v>50</v>
       </c>
       <c r="K212" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L212" t="s">
         <v>16</v>
@@ -13040,7 +13039,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C213">
         <v>2</v>
@@ -13067,7 +13066,7 @@
         <v>50</v>
       </c>
       <c r="K213" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L213" t="s">
         <v>16</v>
@@ -13096,7 +13095,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C214">
         <v>2</v>
@@ -13123,7 +13122,7 @@
         <v>50</v>
       </c>
       <c r="K214" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L214" t="s">
         <v>16</v>
@@ -13179,7 +13178,7 @@
         <v>50</v>
       </c>
       <c r="K215" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L215" t="s">
         <v>16</v>
@@ -13235,7 +13234,7 @@
         <v>50</v>
       </c>
       <c r="K216" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L216" t="s">
         <v>16</v>
@@ -13291,7 +13290,7 @@
         <v>50</v>
       </c>
       <c r="K217" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L217" t="s">
         <v>16</v>
@@ -13347,7 +13346,7 @@
         <v>50</v>
       </c>
       <c r="K218" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L218" t="s">
         <v>16</v>
@@ -13403,7 +13402,7 @@
         <v>50</v>
       </c>
       <c r="K219" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L219" t="s">
         <v>16</v>
@@ -13459,7 +13458,7 @@
         <v>50</v>
       </c>
       <c r="K220" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L220" t="s">
         <v>16</v>
@@ -13515,7 +13514,7 @@
         <v>50</v>
       </c>
       <c r="K221" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L221" t="s">
         <v>16</v>
@@ -13571,7 +13570,7 @@
         <v>50</v>
       </c>
       <c r="K222" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L222" t="s">
         <v>16</v>
@@ -13627,7 +13626,7 @@
         <v>50</v>
       </c>
       <c r="K223" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L223" t="s">
         <v>16</v>
@@ -13683,7 +13682,7 @@
         <v>50</v>
       </c>
       <c r="K224" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L224" t="s">
         <v>16</v>
@@ -13739,7 +13738,7 @@
         <v>50</v>
       </c>
       <c r="K225" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L225" t="s">
         <v>16</v>
@@ -13795,7 +13794,7 @@
         <v>50</v>
       </c>
       <c r="K226" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L226" t="s">
         <v>16</v>
@@ -14664,7 +14663,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C242">
         <v>2</v>
@@ -14691,7 +14690,7 @@
         <v>50</v>
       </c>
       <c r="K242" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L242" t="s">
         <v>22</v>
@@ -14720,7 +14719,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C243">
         <v>2</v>
@@ -14747,7 +14746,7 @@
         <v>50</v>
       </c>
       <c r="K243" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L243" t="s">
         <v>22</v>
@@ -14776,7 +14775,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C244">
         <v>2</v>
@@ -14803,7 +14802,7 @@
         <v>50</v>
       </c>
       <c r="K244" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L244" t="s">
         <v>22</v>
@@ -14832,7 +14831,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C245">
         <v>2</v>
@@ -14859,7 +14858,7 @@
         <v>50</v>
       </c>
       <c r="K245" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L245" t="s">
         <v>22</v>
@@ -14888,7 +14887,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C246">
         <v>2</v>
@@ -14915,7 +14914,7 @@
         <v>50</v>
       </c>
       <c r="K246" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L246" t="s">
         <v>22</v>
@@ -14944,7 +14943,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C247">
         <v>2</v>
@@ -14971,7 +14970,7 @@
         <v>50</v>
       </c>
       <c r="K247" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L247" t="s">
         <v>22</v>
@@ -15000,7 +14999,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C248">
         <v>2</v>
@@ -15027,7 +15026,7 @@
         <v>50</v>
       </c>
       <c r="K248" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L248" t="s">
         <v>22</v>
@@ -15056,7 +15055,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C249">
         <v>2</v>
@@ -15083,7 +15082,7 @@
         <v>50</v>
       </c>
       <c r="K249" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L249" t="s">
         <v>22</v>
@@ -15112,7 +15111,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C250">
         <v>2</v>
@@ -15139,7 +15138,7 @@
         <v>50</v>
       </c>
       <c r="K250" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L250" t="s">
         <v>22</v>
@@ -15168,7 +15167,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C251">
         <v>2</v>
@@ -15195,7 +15194,7 @@
         <v>50</v>
       </c>
       <c r="K251" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L251" t="s">
         <v>22</v>
@@ -15224,7 +15223,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C252">
         <v>2</v>
@@ -15251,7 +15250,7 @@
         <v>50</v>
       </c>
       <c r="K252" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L252" t="s">
         <v>22</v>
@@ -15280,7 +15279,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C253">
         <v>2</v>
@@ -15307,7 +15306,7 @@
         <v>50</v>
       </c>
       <c r="K253" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L253" t="s">
         <v>22</v>
@@ -15336,7 +15335,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C254">
         <v>2</v>
@@ -15363,7 +15362,7 @@
         <v>50</v>
       </c>
       <c r="K254" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L254" t="s">
         <v>22</v>
@@ -15419,10 +15418,10 @@
         <v>50</v>
       </c>
       <c r="K255" t="s">
+        <v>94</v>
+      </c>
+      <c r="L255" t="s">
         <v>93</v>
-      </c>
-      <c r="L255" t="s">
-        <v>92</v>
       </c>
       <c r="M255" t="s">
         <v>17</v>
@@ -15475,10 +15474,10 @@
         <v>50</v>
       </c>
       <c r="K256" t="s">
+        <v>94</v>
+      </c>
+      <c r="L256" t="s">
         <v>93</v>
-      </c>
-      <c r="L256" t="s">
-        <v>92</v>
       </c>
       <c r="M256" t="s">
         <v>40</v>
@@ -15531,10 +15530,10 @@
         <v>50</v>
       </c>
       <c r="K257" t="s">
+        <v>94</v>
+      </c>
+      <c r="L257" t="s">
         <v>93</v>
-      </c>
-      <c r="L257" t="s">
-        <v>92</v>
       </c>
       <c r="M257" t="s">
         <v>40</v>
@@ -15587,16 +15586,16 @@
         <v>50</v>
       </c>
       <c r="K258" t="s">
+        <v>94</v>
+      </c>
+      <c r="L258" t="s">
         <v>93</v>
-      </c>
-      <c r="L258" t="s">
-        <v>92</v>
       </c>
       <c r="M258" t="s">
         <v>40</v>
       </c>
       <c r="N258" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O258" t="s">
         <v>25</v>
@@ -15643,10 +15642,10 @@
         <v>50</v>
       </c>
       <c r="K259" t="s">
+        <v>94</v>
+      </c>
+      <c r="L259" t="s">
         <v>93</v>
-      </c>
-      <c r="L259" t="s">
-        <v>92</v>
       </c>
       <c r="M259" t="s">
         <v>40</v>
@@ -15699,10 +15698,10 @@
         <v>50</v>
       </c>
       <c r="K260" t="s">
+        <v>94</v>
+      </c>
+      <c r="L260" t="s">
         <v>93</v>
-      </c>
-      <c r="L260" t="s">
-        <v>92</v>
       </c>
       <c r="M260" t="s">
         <v>40</v>
@@ -15755,10 +15754,10 @@
         <v>50</v>
       </c>
       <c r="K261" t="s">
+        <v>94</v>
+      </c>
+      <c r="L261" t="s">
         <v>93</v>
-      </c>
-      <c r="L261" t="s">
-        <v>92</v>
       </c>
       <c r="M261" t="s">
         <v>40</v>
@@ -15811,10 +15810,10 @@
         <v>50</v>
       </c>
       <c r="K262" t="s">
+        <v>94</v>
+      </c>
+      <c r="L262" t="s">
         <v>93</v>
-      </c>
-      <c r="L262" t="s">
-        <v>92</v>
       </c>
       <c r="M262" t="s">
         <v>40</v>
@@ -15867,10 +15866,10 @@
         <v>50</v>
       </c>
       <c r="K263" t="s">
+        <v>94</v>
+      </c>
+      <c r="L263" t="s">
         <v>93</v>
-      </c>
-      <c r="L263" t="s">
-        <v>92</v>
       </c>
       <c r="M263" t="s">
         <v>17</v>
@@ -15923,10 +15922,10 @@
         <v>50</v>
       </c>
       <c r="K264" t="s">
+        <v>94</v>
+      </c>
+      <c r="L264" t="s">
         <v>93</v>
-      </c>
-      <c r="L264" t="s">
-        <v>92</v>
       </c>
       <c r="M264" t="s">
         <v>17</v>
@@ -15979,16 +15978,16 @@
         <v>50</v>
       </c>
       <c r="K265" t="s">
+        <v>94</v>
+      </c>
+      <c r="L265" t="s">
         <v>93</v>
-      </c>
-      <c r="L265" t="s">
-        <v>92</v>
       </c>
       <c r="M265" t="s">
         <v>17</v>
       </c>
       <c r="N265" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O265" t="s">
         <v>25</v>
@@ -16822,7 +16821,7 @@
         <v>54</v>
       </c>
       <c r="L280" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M280" t="s">
         <v>17</v>
@@ -16878,7 +16877,7 @@
         <v>54</v>
       </c>
       <c r="L281" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M281" t="s">
         <v>17</v>
@@ -16934,7 +16933,7 @@
         <v>54</v>
       </c>
       <c r="L282" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M282" t="s">
         <v>17</v>
@@ -16990,7 +16989,7 @@
         <v>54</v>
       </c>
       <c r="L283" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M283" t="s">
         <v>17</v>
@@ -17046,7 +17045,7 @@
         <v>54</v>
       </c>
       <c r="L284" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M284" t="s">
         <v>40</v>
@@ -17102,7 +17101,7 @@
         <v>54</v>
       </c>
       <c r="L285" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M285" t="s">
         <v>40</v>
@@ -17128,7 +17127,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C286">
         <v>2</v>
@@ -17152,10 +17151,10 @@
         <v>15</v>
       </c>
       <c r="J286" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K286" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L286" t="s">
         <v>16</v>
@@ -17164,7 +17163,7 @@
         <v>40</v>
       </c>
       <c r="N286" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O286" t="s">
         <v>25</v>
@@ -17184,7 +17183,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C287">
         <v>2</v>
@@ -17208,10 +17207,10 @@
         <v>15</v>
       </c>
       <c r="J287" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K287" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L287" t="s">
         <v>16</v>
@@ -17240,7 +17239,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C288">
         <v>2</v>
@@ -17264,10 +17263,10 @@
         <v>15</v>
       </c>
       <c r="J288" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K288" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L288" t="s">
         <v>16</v>
@@ -17296,7 +17295,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C289">
         <v>2</v>
@@ -17320,10 +17319,10 @@
         <v>15</v>
       </c>
       <c r="J289" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K289" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L289" t="s">
         <v>16</v>
@@ -17352,7 +17351,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C290">
         <v>2</v>
@@ -17376,10 +17375,10 @@
         <v>15</v>
       </c>
       <c r="J290" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K290" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L290" t="s">
         <v>16</v>
@@ -17408,7 +17407,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C291">
         <v>2</v>
@@ -17432,10 +17431,10 @@
         <v>15</v>
       </c>
       <c r="J291" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K291" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L291" t="s">
         <v>16</v>
@@ -17464,7 +17463,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C292">
         <v>2</v>
@@ -17488,10 +17487,10 @@
         <v>15</v>
       </c>
       <c r="J292" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K292" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L292" t="s">
         <v>16</v>
@@ -17520,7 +17519,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C293">
         <v>2</v>
@@ -17544,10 +17543,10 @@
         <v>15</v>
       </c>
       <c r="J293" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K293" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L293" t="s">
         <v>16</v>
@@ -17576,7 +17575,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C294">
         <v>2</v>
@@ -17600,10 +17599,10 @@
         <v>15</v>
       </c>
       <c r="J294" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K294" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L294" t="s">
         <v>16</v>
@@ -17632,7 +17631,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C295">
         <v>2</v>
@@ -17656,10 +17655,10 @@
         <v>15</v>
       </c>
       <c r="J295" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K295" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L295" t="s">
         <v>16</v>
@@ -17712,10 +17711,10 @@
         <v>15</v>
       </c>
       <c r="J296" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K296" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L296" t="s">
         <v>22</v>
@@ -17768,10 +17767,10 @@
         <v>15</v>
       </c>
       <c r="J297" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K297" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L297" t="s">
         <v>22</v>
@@ -17824,10 +17823,10 @@
         <v>15</v>
       </c>
       <c r="J298" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K298" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L298" t="s">
         <v>22</v>
@@ -17836,7 +17835,7 @@
         <v>17</v>
       </c>
       <c r="N298" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O298" t="s">
         <v>25</v>
@@ -17880,10 +17879,10 @@
         <v>15</v>
       </c>
       <c r="J299" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K299" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L299" t="s">
         <v>22</v>
@@ -17892,7 +17891,7 @@
         <v>17</v>
       </c>
       <c r="N299" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O299" t="s">
         <v>25</v>
@@ -17936,10 +17935,10 @@
         <v>15</v>
       </c>
       <c r="J300" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K300" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L300" t="s">
         <v>22</v>
@@ -17992,10 +17991,10 @@
         <v>15</v>
       </c>
       <c r="J301" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K301" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L301" t="s">
         <v>22</v>
@@ -18048,10 +18047,10 @@
         <v>15</v>
       </c>
       <c r="J302" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K302" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L302" t="s">
         <v>22</v>
@@ -18104,10 +18103,10 @@
         <v>15</v>
       </c>
       <c r="J303" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K303" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L303" t="s">
         <v>22</v>
@@ -18160,10 +18159,10 @@
         <v>15</v>
       </c>
       <c r="J304" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K304" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L304" t="s">
         <v>22</v>
@@ -18216,10 +18215,10 @@
         <v>15</v>
       </c>
       <c r="J305" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K305" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L305" t="s">
         <v>22</v>
@@ -18272,7 +18271,7 @@
         <v>14</v>
       </c>
       <c r="J306" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K306" t="s">
         <v>21</v>
@@ -18328,7 +18327,7 @@
         <v>14</v>
       </c>
       <c r="J307" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K307" t="s">
         <v>21</v>
@@ -18384,7 +18383,7 @@
         <v>14</v>
       </c>
       <c r="J308" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K308" t="s">
         <v>21</v>
@@ -18440,7 +18439,7 @@
         <v>14</v>
       </c>
       <c r="J309" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K309" t="s">
         <v>21</v>
@@ -18496,7 +18495,7 @@
         <v>14</v>
       </c>
       <c r="J310" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K310" t="s">
         <v>84</v>
@@ -18552,7 +18551,7 @@
         <v>14</v>
       </c>
       <c r="J311" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K311" t="s">
         <v>84</v>
@@ -18608,7 +18607,7 @@
         <v>14</v>
       </c>
       <c r="J312" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K312" t="s">
         <v>84</v>
@@ -18664,7 +18663,7 @@
         <v>14</v>
       </c>
       <c r="J313" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K313" t="s">
         <v>84</v>
@@ -18682,7 +18681,7 @@
         <v>25</v>
       </c>
       <c r="P313" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="Q313">
         <v>6680127</v>
@@ -18720,7 +18719,7 @@
         <v>14</v>
       </c>
       <c r="J314" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K314" t="s">
         <v>84</v>
@@ -18894,7 +18893,7 @@
         <v>99</v>
       </c>
       <c r="L317" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M317" t="s">
         <v>17</v>
@@ -18950,7 +18949,7 @@
         <v>99</v>
       </c>
       <c r="L318" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M318" t="s">
         <v>17</v>
@@ -19006,7 +19005,7 @@
         <v>99</v>
       </c>
       <c r="L319" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M319" t="s">
         <v>17</v>
@@ -19062,7 +19061,7 @@
         <v>99</v>
       </c>
       <c r="L320" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M320" t="s">
         <v>17</v>
@@ -19118,7 +19117,7 @@
         <v>99</v>
       </c>
       <c r="L321" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M321" t="s">
         <v>17</v>
@@ -19174,7 +19173,7 @@
         <v>99</v>
       </c>
       <c r="L322" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M322" t="s">
         <v>17</v>
@@ -19230,7 +19229,7 @@
         <v>99</v>
       </c>
       <c r="L323" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M323" t="s">
         <v>40</v>
@@ -20530,7 +20529,7 @@
         <v>25</v>
       </c>
       <c r="P346" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="Q346">
         <v>6670629</v>
@@ -20586,7 +20585,7 @@
         <v>25</v>
       </c>
       <c r="P347" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="Q347">
         <v>6670660</v>
@@ -20712,7 +20711,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C350">
         <v>3</v>
@@ -20754,7 +20753,7 @@
         <v>25</v>
       </c>
       <c r="P350" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="Q350">
         <v>6653682</v>
@@ -20768,7 +20767,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C351">
         <v>3</v>
@@ -20824,7 +20823,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C352">
         <v>3</v>
@@ -20880,7 +20879,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C353">
         <v>3</v>
@@ -20936,7 +20935,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C354">
         <v>3</v>
@@ -20972,7 +20971,7 @@
         <v>16</v>
       </c>
       <c r="N354" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O354" t="s">
         <v>25</v>
@@ -20992,7 +20991,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C355">
         <v>3</v>
@@ -21048,7 +21047,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C356">
         <v>3</v>
@@ -21104,7 +21103,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C357">
         <v>3</v>
@@ -21160,7 +21159,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C358">
         <v>3</v>
@@ -21216,7 +21215,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C359">
         <v>3</v>
@@ -21272,7 +21271,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C360">
         <v>3</v>
@@ -21328,7 +21327,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C361">
         <v>3</v>
@@ -21384,7 +21383,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C362">
         <v>3</v>
@@ -21440,7 +21439,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C363">
         <v>3</v>
@@ -21608,7 +21607,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C366">
         <v>3</v>
@@ -21650,7 +21649,7 @@
         <v>25</v>
       </c>
       <c r="P366" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="Q366">
         <v>6712338</v>
@@ -21664,7 +21663,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C367">
         <v>3</v>
@@ -21747,7 +21746,7 @@
         <v>98</v>
       </c>
       <c r="K368" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L368" t="s">
         <v>16</v>
@@ -21803,7 +21802,7 @@
         <v>98</v>
       </c>
       <c r="K369" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L369" t="s">
         <v>16</v>
@@ -21859,7 +21858,7 @@
         <v>98</v>
       </c>
       <c r="K370" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L370" t="s">
         <v>16</v>
@@ -21915,7 +21914,7 @@
         <v>98</v>
       </c>
       <c r="K371" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L371" t="s">
         <v>16</v>
@@ -22027,7 +22026,7 @@
         <v>100</v>
       </c>
       <c r="K373" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L373" t="s">
         <v>101</v>
@@ -22036,7 +22035,7 @@
         <v>17</v>
       </c>
       <c r="N373" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O373" t="s">
         <v>25</v>
@@ -22083,7 +22082,7 @@
         <v>100</v>
       </c>
       <c r="K374" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L374" t="s">
         <v>101</v>
@@ -22195,7 +22194,7 @@
         <v>98</v>
       </c>
       <c r="K376" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L376" t="s">
         <v>101</v>
@@ -22251,7 +22250,7 @@
         <v>98</v>
       </c>
       <c r="K377" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L377" t="s">
         <v>101</v>
@@ -22307,7 +22306,7 @@
         <v>98</v>
       </c>
       <c r="K378" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L378" t="s">
         <v>101</v>
@@ -22363,7 +22362,7 @@
         <v>98</v>
       </c>
       <c r="K379" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L379" t="s">
         <v>101</v>
@@ -22372,7 +22371,7 @@
         <v>40</v>
       </c>
       <c r="N379" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O379" t="s">
         <v>25</v>
@@ -22826,7 +22825,7 @@
         <v>25</v>
       </c>
       <c r="P387" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="Q387">
         <v>6670660</v>
@@ -22882,7 +22881,7 @@
         <v>25</v>
       </c>
       <c r="P388" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="Q388">
         <v>6670657</v>
@@ -23050,7 +23049,7 @@
         <v>25</v>
       </c>
       <c r="P391" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="Q391">
         <v>6626975</v>
@@ -23091,7 +23090,7 @@
         <v>98</v>
       </c>
       <c r="K392" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L392" t="s">
         <v>107</v>
@@ -23147,7 +23146,7 @@
         <v>98</v>
       </c>
       <c r="K393" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L393" t="s">
         <v>107</v>
@@ -23212,7 +23211,7 @@
         <v>40</v>
       </c>
       <c r="N394" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O394" t="s">
         <v>25</v>
@@ -23380,7 +23379,7 @@
         <v>17</v>
       </c>
       <c r="N397" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O397" t="s">
         <v>25</v>
@@ -23427,7 +23426,7 @@
         <v>100</v>
       </c>
       <c r="K398" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L398" t="s">
         <v>101</v>
@@ -23456,7 +23455,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C399">
         <v>4</v>
@@ -23512,7 +23511,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C400">
         <v>4</v>
@@ -23554,7 +23553,7 @@
         <v>25</v>
       </c>
       <c r="P400" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="Q400">
         <v>6653600</v>
@@ -23568,7 +23567,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C401">
         <v>4</v>
@@ -23624,7 +23623,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C402">
         <v>4</v>
@@ -23680,7 +23679,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C403">
         <v>4</v>
@@ -23722,7 +23721,7 @@
         <v>25</v>
       </c>
       <c r="P403" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="Q403">
         <v>6653764</v>
@@ -23736,7 +23735,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C404">
         <v>4</v>
@@ -23844,6 +23843,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S405"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Database.xlsx
+++ b/data/Database.xlsx
@@ -1166,10 +1166,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="P412" sqref="P412"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,7 +1231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>693804</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>693681</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1398,7 +1399,7 @@
         <v>693681</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>693681</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>693681</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>676939</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>676762</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>676143</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>676025</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>676137</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>668086</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>668086</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1958,7 +1959,7 @@
         <v>668061</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2014,7 +2015,7 @@
         <v>668061</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>668130</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2126,7 +2127,7 @@
         <v>667846</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2182,7 +2183,7 @@
         <v>667860</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2238,7 +2239,7 @@
         <v>614426</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>614310</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2350,7 +2351,7 @@
         <v>614256</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>614463</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2518,7 +2519,7 @@
         <v>614463</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2574,7 +2575,7 @@
         <v>614463</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2630,7 +2631,7 @@
         <v>614460</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>614455</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>614447</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2798,7 +2799,7 @@
         <v>614914</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>609189</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>609189</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>609158</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3022,7 +3023,7 @@
         <v>609198</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>609198</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>609176</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>609179</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v>609179</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>609213</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>619149</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>618984</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>618969</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3526,7 +3527,7 @@
         <v>618885</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>618981</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>619058</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>619058</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>619209</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>635471</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3862,7 +3863,7 @@
         <v>635562</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3918,7 +3919,7 @@
         <v>635562</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3974,7 +3975,7 @@
         <v>647970</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>648284</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4086,7 +4087,7 @@
         <v>648482</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>648699</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>648596</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>648521</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4310,7 +4311,7 @@
         <v>647993</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>650387</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4422,7 +4423,7 @@
         <v>650341</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4522,7 +4523,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4578,7 +4579,7 @@
         <v>650342</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4634,7 +4635,7 @@
         <v>650342</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4690,7 +4691,7 @@
         <v>650389</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>650504</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4802,7 +4803,7 @@
         <v>650520</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4914,7 +4915,7 @@
         <v>650438</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4973,7 +4974,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5029,7 +5030,7 @@
         <v>639263</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5088,7 +5089,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5144,7 +5145,7 @@
         <v>638871</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5200,7 +5201,7 @@
         <v>638852</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5256,7 +5257,7 @@
         <v>638451</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>638626</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5368,7 +5369,7 @@
         <v>638706</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5424,7 +5425,7 @@
         <v>638757</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5480,7 +5481,7 @@
         <v>639052</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>639077</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>639077</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5648,7 +5649,7 @@
         <v>639137</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5704,7 +5705,7 @@
         <v>639203</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5760,7 +5761,7 @@
         <v>674287</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5816,7 +5817,7 @@
         <v>673911</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>673875</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>673875</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>673875</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6040,7 +6041,7 @@
         <v>673895</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6096,7 +6097,7 @@
         <v>673895</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6152,7 +6153,7 @@
         <v>673926</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>673957</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6264,7 +6265,7 @@
         <v>674019</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6320,7 +6321,7 @@
         <v>674019</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6376,7 +6377,7 @@
         <v>642584</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6432,7 +6433,7 @@
         <v>642538</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>642425</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6544,7 +6545,7 @@
         <v>642425</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6600,7 +6601,7 @@
         <v>642377</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>641867</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6712,7 +6713,7 @@
         <v>642482</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6768,7 +6769,7 @@
         <v>629542</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>629347</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6930,7 +6931,7 @@
         <v>629167</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6986,7 +6987,7 @@
         <v>629071</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7042,7 +7043,7 @@
         <v>629708</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7098,7 +7099,7 @@
         <v>661373</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7154,7 +7155,7 @@
         <v>661450</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7210,7 +7211,7 @@
         <v>641625</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7266,7 +7267,7 @@
         <v>641841</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7322,7 +7323,7 @@
         <v>641851</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7378,7 +7379,7 @@
         <v>641971</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7434,7 +7435,7 @@
         <v>641867</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7490,7 +7491,7 @@
         <v>641841</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7546,7 +7547,7 @@
         <v>641740</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7602,7 +7603,7 @@
         <v>633610</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7658,7 +7659,7 @@
         <v>633435</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7714,7 +7715,7 @@
         <v>686301</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7770,7 +7771,7 @@
         <v>686325</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7826,7 +7827,7 @@
         <v>686325</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7882,7 +7883,7 @@
         <v>686341</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7938,7 +7939,7 @@
         <v>686512</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7994,7 +7995,7 @@
         <v>686512</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8050,7 +8051,7 @@
         <v>686394</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8106,7 +8107,7 @@
         <v>691549</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8162,7 +8163,7 @@
         <v>692064</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8218,7 +8219,7 @@
         <v>691977</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8274,7 +8275,7 @@
         <v>691977</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8330,7 +8331,7 @@
         <v>691624</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8386,7 +8387,7 @@
         <v>691519</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8442,7 +8443,7 @@
         <v>683342</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8498,7 +8499,7 @@
         <v>683301</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8554,7 +8555,7 @@
         <v>683302</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8610,7 +8611,7 @@
         <v>683377</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8666,7 +8667,7 @@
         <v>683451</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>609236</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8778,7 +8779,7 @@
         <v>609167</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8834,7 +8835,7 @@
         <v>609151</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8890,7 +8891,7 @@
         <v>609151</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8946,7 +8947,7 @@
         <v>609151</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9002,7 +9003,7 @@
         <v>609166</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9058,7 +9059,7 @@
         <v>614924</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9114,7 +9115,7 @@
         <v>614929</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9170,7 +9171,7 @@
         <v>614942</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9226,7 +9227,7 @@
         <v>614927</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9282,7 +9283,7 @@
         <v>614927</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9338,7 +9339,7 @@
         <v>614863</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9394,7 +9395,7 @@
         <v>614856</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9450,7 +9451,7 @@
         <v>614835</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9506,7 +9507,7 @@
         <v>614825</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9562,7 +9563,7 @@
         <v>614420</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9618,7 +9619,7 @@
         <v>614427</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9674,7 +9675,7 @@
         <v>614434</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9730,7 +9731,7 @@
         <v>614455</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9786,7 +9787,7 @@
         <v>614455</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9842,7 +9843,7 @@
         <v>614461</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9898,7 +9899,7 @@
         <v>614431</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9954,7 +9955,7 @@
         <v>614431</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -10010,7 +10011,7 @@
         <v>614358</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -10066,7 +10067,7 @@
         <v>614408</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -10122,7 +10123,7 @@
         <v>614382</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -10178,7 +10179,7 @@
         <v>614327</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -10234,7 +10235,7 @@
         <v>614326</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -10290,7 +10291,7 @@
         <v>614286</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -10346,7 +10347,7 @@
         <v>614288</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -10402,7 +10403,7 @@
         <v>614366</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -10458,7 +10459,7 @@
         <v>619233</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10514,7 +10515,7 @@
         <v>619231</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10570,7 +10571,7 @@
         <v>619223</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10626,7 +10627,7 @@
         <v>619210</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10682,7 +10683,7 @@
         <v>619186</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10738,7 +10739,7 @@
         <v>619134</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10794,7 +10795,7 @@
         <v>619048</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10850,7 +10851,7 @@
         <v>619014</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10906,7 +10907,7 @@
         <v>618978</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -10962,7 +10963,7 @@
         <v>618977</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -11018,7 +11019,7 @@
         <v>618934</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -11074,7 +11075,7 @@
         <v>618910</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -11130,7 +11131,7 @@
         <v>618910</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -11186,7 +11187,7 @@
         <v>618917</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -11242,7 +11243,7 @@
         <v>618959</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -11298,7 +11299,7 @@
         <v>618971</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -11354,7 +11355,7 @@
         <v>618971</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -11410,7 +11411,7 @@
         <v>618988</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -11466,7 +11467,7 @@
         <v>618991</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -11522,7 +11523,7 @@
         <v>618991</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -11578,7 +11579,7 @@
         <v>619050</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -11634,7 +11635,7 @@
         <v>619137</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -11690,7 +11691,7 @@
         <v>619197</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -11746,7 +11747,7 @@
         <v>619244</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -11802,7 +11803,7 @@
         <v>618256</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -11858,7 +11859,7 @@
         <v>639362</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -11914,7 +11915,7 @@
         <v>639352</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11970,7 +11971,7 @@
         <v>639252</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -12026,7 +12027,7 @@
         <v>639233</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -12082,7 +12083,7 @@
         <v>638792</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -12138,7 +12139,7 @@
         <v>638662</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -12194,7 +12195,7 @@
         <v>638738</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -12250,7 +12251,7 @@
         <v>638784</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -12306,7 +12307,7 @@
         <v>638815</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -12362,7 +12363,7 @@
         <v>639026</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -12418,7 +12419,7 @@
         <v>639032</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>639203</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -12530,7 +12531,7 @@
         <v>639366</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -12586,7 +12587,7 @@
         <v>642592</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -12642,7 +12643,7 @@
         <v>642394</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -12698,7 +12699,7 @@
         <v>641765</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -12754,7 +12755,7 @@
         <v>642350</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -12810,7 +12811,7 @@
         <v>674279</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -12866,7 +12867,7 @@
         <v>673991</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -12922,7 +12923,7 @@
         <v>673918</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -12978,7 +12979,7 @@
         <v>648690</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -13034,7 +13035,7 @@
         <v>648513</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -13090,7 +13091,7 @@
         <v>648513</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -13146,7 +13147,7 @@
         <v>648513</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -13202,7 +13203,7 @@
         <v>642028</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -13258,7 +13259,7 @@
         <v>641911</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -13314,7 +13315,7 @@
         <v>641811</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -13370,7 +13371,7 @@
         <v>641811</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -13426,7 +13427,7 @@
         <v>641771</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -13482,7 +13483,7 @@
         <v>641613</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -13538,7 +13539,7 @@
         <v>641716</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -13594,7 +13595,7 @@
         <v>641846</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -13650,7 +13651,7 @@
         <v>641919</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -13706,7 +13707,7 @@
         <v>641943</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -13762,7 +13763,7 @@
         <v>642055</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -13818,7 +13819,7 @@
         <v>642094</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -13874,7 +13875,7 @@
         <v>629806</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -13930,7 +13931,7 @@
         <v>629779</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -13986,7 +13987,7 @@
         <v>629766</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -14042,7 +14043,7 @@
         <v>629317</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -14098,7 +14099,7 @@
         <v>629317</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -14154,7 +14155,7 @@
         <v>629244</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -14210,7 +14211,7 @@
         <v>629045</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -14266,7 +14267,7 @@
         <v>629064</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -14322,7 +14323,7 @@
         <v>629077</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -14378,7 +14379,7 @@
         <v>629343</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -14434,7 +14435,7 @@
         <v>629343</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -14490,7 +14491,7 @@
         <v>629631</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -14546,7 +14547,7 @@
         <v>629767</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -14602,7 +14603,7 @@
         <v>629776</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -14658,7 +14659,7 @@
         <v>629818</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -14714,7 +14715,7 @@
         <v>635327</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -14770,7 +14771,7 @@
         <v>635330</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -14826,7 +14827,7 @@
         <v>635330</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -14882,7 +14883,7 @@
         <v>635311</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -14938,7 +14939,7 @@
         <v>635333</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -14994,7 +14995,7 @@
         <v>635394</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -15050,7 +15051,7 @@
         <v>635402</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -15106,7 +15107,7 @@
         <v>635467</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -15162,7 +15163,7 @@
         <v>635467</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -15218,7 +15219,7 @@
         <v>635581</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -15274,7 +15275,7 @@
         <v>635534</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -15330,7 +15331,7 @@
         <v>635325</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -15386,7 +15387,7 @@
         <v>635314</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -15442,7 +15443,7 @@
         <v>668161</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -15498,7 +15499,7 @@
         <v>668119</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -15554,7 +15555,7 @@
         <v>668132</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -15610,7 +15611,7 @@
         <v>668083</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -15666,7 +15667,7 @@
         <v>668030</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -15722,7 +15723,7 @@
         <v>667973</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -15778,7 +15779,7 @@
         <v>667942</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -15834,7 +15835,7 @@
         <v>667802</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -15890,7 +15891,7 @@
         <v>667817</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -15946,7 +15947,7 @@
         <v>667851</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -16002,7 +16003,7 @@
         <v>668094</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -16058,7 +16059,7 @@
         <v>676586</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -16114,7 +16115,7 @@
         <v>676491</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -16170,7 +16171,7 @@
         <v>676381</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -16226,7 +16227,7 @@
         <v>676115</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -16282,7 +16283,7 @@
         <v>676022</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -16338,7 +16339,7 @@
         <v>676887</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -16394,7 +16395,7 @@
         <v>694375</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -16450,7 +16451,7 @@
         <v>694359</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -16506,7 +16507,7 @@
         <v>694183</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -16562,7 +16563,7 @@
         <v>694106</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -16618,7 +16619,7 @@
         <v>694094</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -16674,7 +16675,7 @@
         <v>693631</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -16730,7 +16731,7 @@
         <v>693884</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -16786,7 +16787,7 @@
         <v>693926</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -16842,7 +16843,7 @@
         <v>661381</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -16898,7 +16899,7 @@
         <v>661357</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -16954,7 +16955,7 @@
         <v>661423</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -17010,7 +17011,7 @@
         <v>661454</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -17066,7 +17067,7 @@
         <v>661368</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -17122,7 +17123,7 @@
         <v>661414</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -17178,7 +17179,7 @@
         <v>650339</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -17234,7 +17235,7 @@
         <v>650395</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -17290,7 +17291,7 @@
         <v>650432</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -17346,7 +17347,7 @@
         <v>650435</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -17402,7 +17403,7 @@
         <v>650517</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -17458,7 +17459,7 @@
         <v>650521</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -17514,7 +17515,7 @@
         <v>650520</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -17570,7 +17571,7 @@
         <v>650531</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -17626,7 +17627,7 @@
         <v>650514</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -17682,7 +17683,7 @@
         <v>650510</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -17738,7 +17739,7 @@
         <v>633660</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -17794,7 +17795,7 @@
         <v>633629</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -17850,7 +17851,7 @@
         <v>633602</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -17906,7 +17907,7 @@
         <v>633603</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -17962,7 +17963,7 @@
         <v>633532</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -18018,7 +18019,7 @@
         <v>633452</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -18074,7 +18075,7 @@
         <v>633438</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -18130,7 +18131,7 @@
         <v>633413</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -18186,7 +18187,7 @@
         <v>633573</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -18242,7 +18243,7 @@
         <v>633591</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -18298,7 +18299,7 @@
         <v>683305</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -18354,7 +18355,7 @@
         <v>683299</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -18410,7 +18411,7 @@
         <v>683375</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -18466,7 +18467,7 @@
         <v>683458</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -18522,7 +18523,7 @@
         <v>686456</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -18578,7 +18579,7 @@
         <v>686447</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -18634,7 +18635,7 @@
         <v>686379</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -18690,7 +18691,7 @@
         <v>686353</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -18746,7 +18747,7 @@
         <v>686319</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -18802,7 +18803,7 @@
         <v>691892</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -18858,7 +18859,7 @@
         <v>691715</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -18914,7 +18915,7 @@
         <v>668045</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -18970,7 +18971,7 @@
         <v>668137</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -19026,7 +19027,7 @@
         <v>667953</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -19082,7 +19083,7 @@
         <v>667940</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -19138,7 +19139,7 @@
         <v>667840</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -19194,7 +19195,7 @@
         <v>667830</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -19250,7 +19251,7 @@
         <v>668110</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -19306,7 +19307,7 @@
         <v>661360</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -19362,7 +19363,7 @@
         <v>661360</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -19418,7 +19419,7 @@
         <v>661361</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -19474,7 +19475,7 @@
         <v>661361</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -19530,7 +19531,7 @@
         <v>661357</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -19586,7 +19587,7 @@
         <v>661370</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -19642,7 +19643,7 @@
         <v>694310</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -19698,7 +19699,7 @@
         <v>694310</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -19754,7 +19755,7 @@
         <v>693808</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -19810,7 +19811,7 @@
         <v>694398</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -19866,7 +19867,7 @@
         <v>683461</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -19922,7 +19923,7 @@
         <v>683373</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -19978,7 +19979,7 @@
         <v>683337</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -20034,7 +20035,7 @@
         <v>683325</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -20090,7 +20091,7 @@
         <v>683325</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -20146,7 +20147,7 @@
         <v>683314</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -20202,7 +20203,7 @@
         <v>683568</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -20258,7 +20259,7 @@
         <v>683568</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -20314,7 +20315,7 @@
         <v>675589</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -20370,7 +20371,7 @@
         <v>691188</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -20426,7 +20427,7 @@
         <v>691255</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -20482,7 +20483,7 @@
         <v>691255</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -20538,7 +20539,7 @@
         <v>691315</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -20594,7 +20595,7 @@
         <v>691236</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -20650,7 +20651,7 @@
         <v>674251</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -20706,7 +20707,7 @@
         <v>674169</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -20762,7 +20763,7 @@
         <v>639027</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -20818,7 +20819,7 @@
         <v>639009</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -20874,7 +20875,7 @@
         <v>638454</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -20930,7 +20931,7 @@
         <v>638535</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -20986,7 +20987,7 @@
         <v>638535</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -21042,7 +21043,7 @@
         <v>638553</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -21098,7 +21099,7 @@
         <v>638557</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -21154,7 +21155,7 @@
         <v>638637</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -21210,7 +21211,7 @@
         <v>638678</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -21266,7 +21267,7 @@
         <v>638915</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -21322,7 +21323,7 @@
         <v>638915</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -21378,7 +21379,7 @@
         <v>639017</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -21434,7 +21435,7 @@
         <v>639093</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -21490,7 +21491,7 @@
         <v>639122</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -21546,7 +21547,7 @@
         <v>642157</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -21602,7 +21603,7 @@
         <v>641763</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -21658,7 +21659,7 @@
         <v>650517</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -21714,7 +21715,7 @@
         <v>650340</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -21770,7 +21771,7 @@
         <v>629745</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -21826,7 +21827,7 @@
         <v>629698</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -21882,7 +21883,7 @@
         <v>629544</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -21938,7 +21939,7 @@
         <v>629713</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -21994,7 +21995,7 @@
         <v>633437</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -22050,7 +22051,7 @@
         <v>609183</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -22106,7 +22107,7 @@
         <v>609207</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -22162,7 +22163,7 @@
         <v>668046</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -22218,7 +22219,7 @@
         <v>661362</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -22274,7 +22275,7 @@
         <v>661359</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -22330,7 +22331,7 @@
         <v>661353</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -22386,7 +22387,7 @@
         <v>661353</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -22442,7 +22443,7 @@
         <v>683357</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -22498,7 +22499,7 @@
         <v>683527</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -22554,7 +22555,7 @@
         <v>691163</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -22610,7 +22611,7 @@
         <v>691180</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -22666,7 +22667,7 @@
         <v>691263</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -22722,7 +22723,7 @@
         <v>691263</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -22778,7 +22779,7 @@
         <v>691263</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -22834,7 +22835,7 @@
         <v>691263</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -22890,7 +22891,7 @@
         <v>691236</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -22946,7 +22947,7 @@
         <v>694038</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -23002,7 +23003,7 @@
         <v>694543</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -23058,7 +23059,7 @@
         <v>675809</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -23114,7 +23115,7 @@
         <v>629716</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -23170,7 +23171,7 @@
         <v>629758</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -23226,7 +23227,7 @@
         <v>633576</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -23282,7 +23283,7 @@
         <v>633496</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -23338,7 +23339,7 @@
         <v>633431</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -23394,7 +23395,7 @@
         <v>633443</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -23450,7 +23451,7 @@
         <v>642047</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -23506,7 +23507,7 @@
         <v>639185</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -23562,7 +23563,7 @@
         <v>639165</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -23618,7 +23619,7 @@
         <v>638657</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -23674,7 +23675,7 @@
         <v>638621</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -23730,7 +23731,7 @@
         <v>638915</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -23786,7 +23787,7 @@
         <v>639248</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -23843,7 +23844,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S405"/>
+  <autoFilter ref="A1:S405">
+    <filterColumn colId="14">
+      <filters>
+        <filter val="?"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>